--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
     <sheet name="001_addBookingRule" sheetId="2" r:id="rId2"/>
     <sheet name="002_editBookingRule" sheetId="5" r:id="rId3"/>
     <sheet name="003_delBookingRule" sheetId="6" r:id="rId4"/>
+    <sheet name="004_checkBookingWaterNum" sheetId="7" r:id="rId5"/>
+    <sheet name="005_checkBookingReport" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>动作</t>
   </si>
@@ -437,6 +439,63 @@
   </si>
   <si>
     <t>删除成功</t>
+  </si>
+  <si>
+    <t>点击预订订单流水</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.预订订单流水</t>
+  </si>
+  <si>
+    <t>1预订订单流水界面</t>
+  </si>
+  <si>
+    <t>点击搜索时间</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.搜索时间</t>
+  </si>
+  <si>
+    <t>输入开始日期</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.开始日期</t>
+  </si>
+  <si>
+    <t>20170101</t>
+  </si>
+  <si>
+    <t>点击搜索时间-确定</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.搜索时间-确定</t>
+  </si>
+  <si>
+    <t>输入搜索按钮</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.搜索按钮</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.记录列表</t>
+  </si>
+  <si>
+    <t>$全局变量.筛选数据停车场名称</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.预订报表</t>
+  </si>
+  <si>
+    <t>1预订报表界面</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.时间维度</t>
+  </si>
+  <si>
+    <t>年报</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称</t>
   </si>
 </sst>
 </file>
@@ -465,50 +524,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,26 +539,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,38 +569,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,6 +588,85 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -624,187 +683,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,35 +892,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,8 +925,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,28 +975,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1792,7 +1851,7 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1886,7 +1945,7 @@
         <v>89</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f>C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
+        <f t="shared" ref="B6:B11" si="0">C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
         <v>点击停车场</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1901,7 +1960,7 @@
         <v>91</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>C7&amp;MID(D7,FIND(".",D7)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>勾选checkbox选择停车场</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1919,7 +1978,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>C8&amp;MID(D8,FIND(".",D8)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>点击确认-二级提示</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1934,7 +1993,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入设置名称</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1953,7 +2012,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f>C10&amp;MID(D10,FIND(".",D10)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入可预订数量</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1972,7 +2031,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>C11&amp;MID(D11,FIND(".",D11)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入预订服务费</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2377,7 +2436,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2596,4 +2655,394 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C24:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C2:C3 C6:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C23">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C22:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C21">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="003_delBookingRule" sheetId="6" r:id="rId4"/>
     <sheet name="004_checkBookingWaterNum" sheetId="7" r:id="rId5"/>
     <sheet name="005_checkBookingReport" sheetId="8" r:id="rId6"/>
+    <sheet name="006_exportBookingWaterNum" sheetId="9" r:id="rId7"/>
+    <sheet name="007_exportBookingReport" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="162">
   <si>
     <t>动作</t>
   </si>
@@ -496,6 +498,15 @@
   </si>
   <si>
     <t>$全局变量.停车场名称</t>
+  </si>
+  <si>
+    <t>点击导出</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.导出</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
   </si>
 </sst>
 </file>
@@ -503,10 +514,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -525,7 +536,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,30 +635,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,70 +665,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,14 +674,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,13 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +706,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,6 +742,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -731,19 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,19 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,49 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,25 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,6 +903,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -903,6 +953,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,67 +995,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,10 +1008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,133 +1020,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2662,8 +2673,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2873,7 +2884,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3045,4 +3056,482 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C26:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C2:C3 C6:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C24:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C11 C2:C3 C9:C10">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C23">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -514,10 +514,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -535,26 +535,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,9 +550,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,31 +594,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,38 +619,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +666,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,19 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,19 +706,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,67 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +766,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,49 +838,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,41 +903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,10 +935,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -978,16 +952,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,6 +989,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1008,10 +1008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,133 +1020,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3301,10 +3301,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3488,47 +3488,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C24:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C12:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C11 C2:C3 C9:C10">
       <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
-      <formula1>Actions!$A$2:$A$35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C23">
-      <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="5" activeTab="7"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -535,6 +535,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -543,8 +567,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +597,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,25 +611,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,22 +644,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,30 +671,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,13 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,43 +706,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +742,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +790,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,67 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +899,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,17 +954,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,15 +992,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1008,10 +1008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,133 +1020,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1862,8 +1862,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2201,8 +2201,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3303,8 +3303,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="888" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="162">
   <si>
     <t>动作</t>
   </si>
@@ -407,6 +407,12 @@
     <t>CarBookingRulePage.停车场列表</t>
   </si>
   <si>
+    <t>点击按钮</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.搜索按钮</t>
+  </si>
+  <si>
     <t>2搜索管理界面</t>
   </si>
   <si>
@@ -476,9 +482,6 @@
     <t>输入搜索按钮</t>
   </si>
   <si>
-    <t>CarBookingRulePage.搜索按钮</t>
-  </si>
-  <si>
     <t>CarBookingRulePage.记录列表</t>
   </si>
   <si>
@@ -495,9 +498,6 @@
   </si>
   <si>
     <t>年报</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场名称</t>
   </si>
   <si>
     <t>点击导出</t>
@@ -535,8 +535,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -551,24 +566,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -576,21 +582,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,37 +603,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,9 +672,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,7 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,13 +706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,31 +766,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,91 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,15 +899,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,9 +944,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,11 +994,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,10 +1008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,133 +1020,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1862,8 +1862,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2199,10 +2199,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2314,32 +2314,32 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -2347,29 +2347,28 @@
         <v>131</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2378,61 +2377,77 @@
         <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>134</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C30:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C31:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C2:C3 C5:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C14 C2:C3 C5:C6">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C19">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C30">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2444,10 +2459,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2559,107 +2574,122 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>134</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C25:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C26:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C2:C3 C5:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C2:C3 C5:C6">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2674,7 +2704,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2739,13 +2769,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2761,7 +2791,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2769,13 +2799,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2784,16 +2814,16 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2801,13 +2831,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2816,13 +2846,13 @@
         <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2838,7 +2868,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2852,10 +2882,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2883,8 +2913,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2949,13 +2979,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2971,7 +3001,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2979,16 +3009,16 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2996,13 +3026,13 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3018,7 +3048,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3032,10 +3062,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3129,13 +3159,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3151,7 +3181,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3159,13 +3189,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3174,16 +3204,16 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3191,13 +3221,13 @@
         <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3206,13 +3236,13 @@
         <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3228,7 +3258,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3257,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -3304,7 +3334,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3369,13 +3399,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3391,7 +3421,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3399,16 +3429,16 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3416,13 +3446,13 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3438,7 +3468,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3467,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E10" s="3"/>
     </row>

--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="888" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="888" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="161">
   <si>
     <t>动作</t>
   </si>
@@ -296,117 +296,111 @@
     <t>CarBookingRulePage.停车场</t>
   </si>
   <si>
+    <t>$全局变量.停车场名称</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.设置名称</t>
+  </si>
+  <si>
+    <t>ui车位预定配置</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.可预订数量</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.预订服务费</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>点击是否预收停车费</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.是否预收停车费</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.可取消时间</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.VIP类型</t>
+  </si>
+  <si>
+    <t>新增123123</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2车位预订新增界面</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.确认-提示</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3保存后截图</t>
+  </si>
+  <si>
+    <t>输入搜索框</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.请选择停车场</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.停车场列表</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>CarBookingRulePage.选择停车场</t>
-  </si>
-  <si>
-    <t>$全局变量.停车场名称;on</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.确认-二级提示</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.设置名称</t>
-  </si>
-  <si>
-    <t>ui车位预定配置</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.可预订数量</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.预订服务费</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>点击是否预收停车费</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.是否预收停车费</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.可取消时间</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.VIP类型</t>
-  </si>
-  <si>
-    <t>新增123123</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2车位预订新增界面</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.确认-提示</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>保存成功</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3保存后截图</t>
-  </si>
-  <si>
-    <t>输入搜索框</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.请选择停车场</t>
-  </si>
-  <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.停车场列表</t>
-  </si>
-  <si>
     <t>点击按钮</t>
   </si>
   <si>
@@ -470,34 +464,37 @@
     <t>CarBookingRulePage.开始日期</t>
   </si>
   <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>点击搜索时间-确定</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.搜索时间-确定</t>
+  </si>
+  <si>
+    <t>输入搜索按钮</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.记录列表</t>
+  </si>
+  <si>
+    <t>$全局变量.筛选数据停车场名称</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.预订报表</t>
+  </si>
+  <si>
+    <t>1预订报表界面</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.时间维度</t>
+  </si>
+  <si>
+    <t>年报</t>
+  </si>
+  <si>
     <t>20170101</t>
-  </si>
-  <si>
-    <t>点击搜索时间-确定</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.搜索时间-确定</t>
-  </si>
-  <si>
-    <t>输入搜索按钮</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.记录列表</t>
-  </si>
-  <si>
-    <t>$全局变量.筛选数据停车场名称</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.预订报表</t>
-  </si>
-  <si>
-    <t>1预订报表界面</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.时间维度</t>
-  </si>
-  <si>
-    <t>年报</t>
   </si>
   <si>
     <t>点击导出</t>
@@ -536,38 +533,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,30 +585,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,19 +607,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,6 +633,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,6 +667,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -694,7 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +727,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,25 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +817,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,85 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,15 +896,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,10 +932,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1000,6 +986,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1008,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,133 +1017,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1860,10 +1857,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1951,244 +1948,214 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:4">
+    <row r="6" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" ref="B6:B11" si="0">C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
-        <v>点击停车场</v>
+        <f>C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
+        <v>选择下拉列表 - Text停车场</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:5">
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>勾选checkbox选择停车场</v>
+        <f>C7&amp;MID(D7,FIND(".",D7)+1,10)</f>
+        <v>输入设置名称</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>点击确认-二级提示</v>
+        <f>C8&amp;MID(D8,FIND(".",D8)+1,10)</f>
+        <v>输入可预订数量</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入设置名称</v>
+        <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
+        <v>输入预订服务费</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入可预订数量</v>
+        <v>97</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入预订服务费</v>
+        <f>C11&amp;MID(D11,FIND(".",D11)+1,10)</f>
+        <v>输入可取消时间</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>C12&amp;MID(D12,FIND(".",D12)+1,10)</f>
+        <v>选择下拉列表 - TextVIP类型</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" ht="33" customHeight="1" spans="1:6">
+    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f>C13&amp;MID(D13,FIND(".",D13)+1,10)</f>
-        <v>输入可取消时间</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f>C14&amp;MID(D14,FIND(".",D14)+1,10)</f>
-        <v>选择下拉列表 - TextVIP类型</v>
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C33:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C21">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C32">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" display="1440"/>
+    <hyperlink ref="E11" r:id="rId1" display="1440"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2201,8 +2168,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2282,13 +2249,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2297,36 +2264,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -2336,45 +2303,45 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>84</v>
@@ -2384,46 +2351,46 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>84</v>
@@ -2433,7 +2400,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2542,13 +2509,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2557,36 +2524,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -2596,27 +2563,27 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2626,46 +2593,46 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>84</v>
@@ -2675,7 +2642,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2703,8 +2670,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2769,13 +2736,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2791,7 +2758,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2799,66 +2766,66 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2868,12 +2835,12 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
@@ -2882,10 +2849,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2913,8 +2880,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2979,13 +2946,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3001,7 +2968,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3009,36 +2976,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -3048,12 +3015,12 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -3062,10 +3029,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3159,13 +3126,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3181,7 +3148,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3189,66 +3156,66 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -3258,42 +3225,42 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>36</v>
@@ -3302,10 +3269,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3399,13 +3366,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3421,7 +3388,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3429,36 +3396,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -3468,42 +3435,42 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
@@ -3512,10 +3479,10 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="888" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="888" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="163">
   <si>
     <t>动作</t>
   </si>
@@ -293,22 +293,40 @@
     <t>5</t>
   </si>
   <si>
+    <t>点击停车场</t>
+  </si>
+  <si>
     <t>CarBookingRulePage.停车场</t>
   </si>
   <si>
-    <t>$全局变量.停车场名称</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.选择停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>CarBookingRulePage.设置名称</t>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.预定名称</t>
   </si>
   <si>
     <t>ui车位预定配置</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>CarBookingRulePage.可预订数量</t>
@@ -317,7 +335,22 @@
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
+    <t>CarBookingRulePage.VIP类型</t>
+  </si>
+  <si>
+    <t>新增123123</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>点击费用设置</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.费用设置</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>CarBookingRulePage.预订服务费</t>
@@ -326,46 +359,28 @@
     <t>500</t>
   </si>
   <si>
-    <t>点击是否预收停车费</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.是否预收停车费</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.可取消时间</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>CarBookingRulePage.可取消预订时间</t>
   </si>
   <si>
     <t>1440</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>CarBookingRulePage.VIP类型</t>
-  </si>
-  <si>
-    <t>新增123123</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>2车位预订新增界面</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>点击确认</t>
+    <t>15</t>
   </si>
   <si>
     <t>CarBookingRulePage.确认-提示</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>操作成功</t>
@@ -377,7 +392,7 @@
     <t>保存成功</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>3保存后截图</t>
@@ -395,12 +410,6 @@
     <t>CarBookingRulePage.停车场列表</t>
   </si>
   <si>
-    <t>$全局变量.停车场名称;on</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>点击按钮</t>
   </si>
   <si>
@@ -492,9 +501,6 @@
   </si>
   <si>
     <t>年报</t>
-  </si>
-  <si>
-    <t>20170101</t>
   </si>
   <si>
     <t>点击导出</t>
@@ -511,10 +517,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -532,45 +538,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,24 +577,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,23 +616,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,6 +641,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,14 +668,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -668,9 +675,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,25 +697,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +775,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,91 +865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,31 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,17 +906,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,8 +962,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -949,31 +981,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,17 +1003,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1005,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1857,10 +1863,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1948,34 +1954,31 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:5">
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="7" t="str">
-        <f>C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
-        <v>选择下拉列表 - Text停车场</v>
+      <c r="B6" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:6">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>C7&amp;MID(D7,FIND(".",D7)+1,10)</f>
-        <v>输入设置名称</v>
+        <f t="shared" ref="B7:B11" si="0">C7&amp;MID(D7,FIND(".",D7)+1,10)</f>
+        <v>勾选checkbox选择停车场</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>93</v>
@@ -1983,34 +1986,28 @@
       <c r="E7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:6">
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="7" t="str">
-        <f>C8&amp;MID(D8,FIND(".",D8)+1,10)</f>
-        <v>输入可预订数量</v>
+      <c r="B8" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
-        <v>输入预订服务费</v>
+        <f t="shared" si="0"/>
+        <v>输入预定名称</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -2025,16 +2022,20 @@
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>输入可预订数量</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>102</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -2043,11 +2044,11 @@
         <v>103</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>C11&amp;MID(D11,FIND(".",D11)+1,10)</f>
-        <v>输入可取消时间</v>
+        <f t="shared" si="0"/>
+        <v>选择下拉列表 - TextVIP类型</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>104</v>
@@ -2061,101 +2062,135 @@
       <c r="A12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="7" t="str">
-        <f>C12&amp;MID(D12,FIND(".",D12)+1,10)</f>
-        <v>选择下拉列表 - TextVIP类型</v>
+      <c r="B12" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="str">
+        <f>C13&amp;MID(D13,FIND(".",D13)+1,10)</f>
+        <v>输入预订服务费</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f>C14&amp;MID(D14,FIND(".",D14)+1,10)</f>
+        <v>输入可取消预订时间</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>119</v>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C33:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C23">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="1440"/>
+    <hyperlink ref="E14" r:id="rId1" display="1440"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2166,10 +2201,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2249,13 +2284,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2264,36 +2299,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -2303,45 +2338,45 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>84</v>
@@ -2351,70 +2386,86 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>113</v>
+      <c r="D12" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>134</v>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C31:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C32:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C14 C2:C3 C5:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C7 C8 C9 C10 C11 C12 C13 C14 C15 C2:C3 C5:C6">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C20">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C31">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2429,7 +2480,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2509,13 +2560,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2524,36 +2575,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -2563,27 +2614,27 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2593,46 +2644,46 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>84</v>
@@ -2642,7 +2693,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2670,8 +2721,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="C3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2736,13 +2787,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2758,7 +2809,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2766,66 +2817,66 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2835,12 +2886,12 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
@@ -2849,10 +2900,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2946,13 +2997,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2968,7 +3019,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2976,36 +3027,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -3015,12 +3066,12 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -3029,10 +3080,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +3112,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3126,13 +3177,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3148,7 +3199,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3156,66 +3207,66 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -3225,42 +3276,42 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>36</v>
@@ -3269,10 +3320,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3300,8 +3351,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3366,13 +3417,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3388,7 +3439,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3396,36 +3447,36 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -3435,42 +3486,42 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>36</v>
@@ -3479,10 +3530,10 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" tabRatio="888" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="888" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -536,6 +536,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -654,15 +661,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,8 +674,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,156 +692,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,6 +721,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,6 +788,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1866,7 +1866,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2203,8 +2203,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2480,7 +2480,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2722,7 +2722,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="C3:E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2931,8 +2931,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3351,8 +3351,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="888" activeTab="5"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="888" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="165">
   <si>
     <t>动作</t>
   </si>
@@ -338,7 +338,7 @@
     <t>CarBookingRulePage.VIP类型</t>
   </si>
   <si>
-    <t>新增123123</t>
+    <t>ui预定vip</t>
   </si>
   <si>
     <t>11</t>
@@ -482,13 +482,16 @@
     <t>CarBookingRulePage.搜索时间-确定</t>
   </si>
   <si>
+    <t>$全局变量.筛选数据停车场名称;off</t>
+  </si>
+  <si>
     <t>输入搜索按钮</t>
   </si>
   <si>
     <t>CarBookingRulePage.记录列表</t>
   </si>
   <si>
-    <t>$全局变量.筛选数据停车场名称</t>
+    <t>$全局变量.停车场名称</t>
   </si>
   <si>
     <t>CarBookingRulePage.预订报表</t>
@@ -501,6 +504,9 @@
   </si>
   <si>
     <t>年报</t>
+  </si>
+  <si>
+    <t>$全局变量.云停车场</t>
   </si>
   <si>
     <t>点击导出</t>
@@ -517,10 +523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -539,22 +545,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -562,15 +560,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,16 +574,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,22 +597,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -631,7 +604,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -646,22 +619,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,8 +650,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +703,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +751,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,163 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,45 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -956,26 +923,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,12 +944,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,133 +1029,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1866,7 +1872,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2480,7 +2486,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2719,10 +2725,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2864,13 +2870,13 @@
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>130</v>
+      <c r="D9" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2879,45 +2885,94 @@
         <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>155</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C24:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C2:C3 C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C2:C3 C6:C8">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2931,8 +2986,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3003,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3019,7 +3074,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3033,10 +3088,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3044,7 +3099,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -3080,10 +3135,10 @@
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +3309,7 @@
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -3284,13 +3339,13 @@
         <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3323,7 +3378,7 @@
         <v>121</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3423,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3439,7 +3494,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3453,10 +3508,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3464,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -3494,13 +3549,13 @@
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3533,7 +3588,7 @@
         <v>121</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/carBookingRule.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="165">
   <si>
     <t>动作</t>
   </si>
@@ -523,10 +523,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -544,13 +544,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -566,8 +559,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -581,15 +595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,14 +605,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -619,31 +619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,6 +665,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -703,13 +703,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,43 +763,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,19 +799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,13 +823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,37 +859,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,17 +944,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -965,8 +954,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,8 +963,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,6 +998,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,16 +1029,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,115 +1047,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2725,9 +2725,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2855,28 +2855,28 @@
         <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2885,17 +2885,15 @@
         <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
@@ -2911,7 +2909,7 @@
         <v>128</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2919,60 +2917,77 @@
         <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C28:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C2:C3 C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C8 C9 C10 C11 C12 C13 C14 C15 C2:C3 C6:C7">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C27">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
